--- a/用户数据字典.xlsx
+++ b/用户数据字典.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89315E7B-3F8E-448C-B832-7443037C429E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610D7FED-7C01-4A73-BCC8-FADF32A27A36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,13 +102,20 @@
   <si>
     <t>Ref.Field</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wenku.baidu.com/view/397d9e3fda38376bae1fae15.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考网址:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,29 +211,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -231,12 +244,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
     <col min="4" max="9" width="9" style="3"/>
@@ -530,6 +560,19 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="15"/>
+    </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
@@ -550,70 +593,70 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="M5" s="15">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="M5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -632,18 +675,18 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -652,7 +695,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="14">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
@@ -663,7 +706,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="14">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
@@ -674,7 +717,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="14">
+      <c r="B10" s="8">
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
@@ -685,7 +728,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="14">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
@@ -696,7 +739,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="14">
+      <c r="B12" s="8">
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
@@ -706,54 +749,54 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
+      <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
+      <c r="B14" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="14">
+      <c r="B15" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="14">
+      <c r="B16" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="14">
+      <c r="B17" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="14">
+      <c r="B18" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="14">
+      <c r="B19" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="14">
+      <c r="B20" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="14">
+      <c r="B21" s="8">
         <v>14</v>
       </c>
     </row>
@@ -769,229 +812,233 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{4F87A77D-F4EA-4191-A827-6DE924D2691C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>